--- a/AutomationTestSuite/target/test-classes/data.xlsx
+++ b/AutomationTestSuite/target/test-classes/data.xlsx
@@ -8,15 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\eclipse-workspace\AutomationTestSuite\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EA4EF23-8D94-457A-8054-8168D2B3550B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65B090FC-8976-4019-9221-B663F3A1F1BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="703" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
-    <sheet name="salesInvoices" sheetId="2" r:id="rId2"/>
-    <sheet name="purchasesInvoices" sheetId="3" r:id="rId3"/>
-    <sheet name="VatReport" sheetId="4" r:id="rId4"/>
+    <sheet name="sales" sheetId="2" r:id="rId2"/>
+    <sheet name="salesReturn" sheetId="5" r:id="rId3"/>
+    <sheet name="salesReturnWithoutRef" sheetId="7" r:id="rId4"/>
+    <sheet name="salesCashback" sheetId="8" r:id="rId5"/>
+    <sheet name="purchases" sheetId="3" r:id="rId6"/>
+    <sheet name="purchaseReturn" sheetId="6" r:id="rId7"/>
+    <sheet name="purchaseReturnWithoutRef" sheetId="9" r:id="rId8"/>
+    <sheet name="purchaseCashback" sheetId="10" r:id="rId9"/>
+    <sheet name="VatReport" sheetId="4" r:id="rId10"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="55">
   <si>
     <t>email</t>
   </si>
@@ -136,6 +142,63 @@
   </si>
   <si>
     <t>SA_PU_S050</t>
+  </si>
+  <si>
+    <t>referenceInvoiceNumber</t>
+  </si>
+  <si>
+    <t>returnInvoiceNumber</t>
+  </si>
+  <si>
+    <t>sales001</t>
+  </si>
+  <si>
+    <t>sales001_return</t>
+  </si>
+  <si>
+    <t>returnQuantity</t>
+  </si>
+  <si>
+    <t>return001</t>
+  </si>
+  <si>
+    <t>Nov 05 2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">invoiceDate </t>
+  </si>
+  <si>
+    <t>Aug 05 2024</t>
+  </si>
+  <si>
+    <t>SA_SA_S050-مرتجع</t>
+  </si>
+  <si>
+    <t>VATCode</t>
+  </si>
+  <si>
+    <t>test description</t>
+  </si>
+  <si>
+    <t>productPrice</t>
+  </si>
+  <si>
+    <t>purchases001</t>
+  </si>
+  <si>
+    <t>purchases001_return</t>
+  </si>
+  <si>
+    <t>p_return001</t>
+  </si>
+  <si>
+    <t>SA_PU_S050-مرتجع</t>
+  </si>
+  <si>
+    <t>p_Cashback001</t>
+  </si>
+  <si>
+    <t>Jul 05 2024</t>
   </si>
 </sst>
 </file>
@@ -500,12 +563,67 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BD80CDB-3670-4652-A49E-020F519E40C9}">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17.21875" customWidth="1"/>
+    <col min="2" max="2" width="14" style="2" customWidth="1"/>
+    <col min="4" max="4" width="14.5546875" customWidth="1"/>
+    <col min="5" max="5" width="40.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2">
+        <v>2024</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0978804B-D341-4909-A367-7267DE1FF7A1}">
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="E1" activeCellId="4" sqref="A1:A1048576 B1:B1048576 C1:C1048576 D1:D1048576 E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -554,7 +672,7 @@
         <v>29</v>
       </c>
       <c r="K1" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
@@ -598,11 +716,185 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E10BFDF2-3C8C-49D7-9B6A-12B0125A3F86}">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="22.109375" customWidth="1"/>
+    <col min="2" max="2" width="20.21875" customWidth="1"/>
+    <col min="3" max="3" width="16.88671875" customWidth="1"/>
+    <col min="4" max="4" width="19.6640625" customWidth="1"/>
+    <col min="5" max="5" width="22.33203125" customWidth="1"/>
+    <col min="6" max="6" width="14.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{512150A4-0E34-4635-B0FF-D3A85D1B6491}">
+  <dimension ref="A1:K2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:K1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="22.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.44140625" customWidth="1"/>
+    <col min="3" max="3" width="15.77734375" customWidth="1"/>
+    <col min="4" max="4" width="16.77734375" customWidth="1"/>
+    <col min="5" max="5" width="18.33203125" customWidth="1"/>
+    <col min="6" max="6" width="11.5546875" customWidth="1"/>
+    <col min="7" max="7" width="18.21875" customWidth="1"/>
+    <col min="8" max="8" width="20.77734375" customWidth="1"/>
+    <col min="10" max="10" width="10" customWidth="1"/>
+    <col min="11" max="11" width="20.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E07147E-3949-44F0-87EA-41D72D3FF263}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1AAE4FD-2C05-46F3-9B37-96DC9848AF1B}">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -693,54 +985,229 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BD80CDB-3670-4652-A49E-020F519E40C9}">
-  <dimension ref="A1:E2"/>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44CE336D-961F-47DC-9682-35235FA451C1}">
+  <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.21875" customWidth="1"/>
-    <col min="2" max="2" width="14" style="2" customWidth="1"/>
-    <col min="4" max="4" width="14.5546875" customWidth="1"/>
-    <col min="5" max="5" width="40.109375" customWidth="1"/>
+    <col min="1" max="1" width="22.109375" customWidth="1"/>
+    <col min="2" max="2" width="20.21875" customWidth="1"/>
+    <col min="3" max="3" width="16.88671875" customWidth="1"/>
+    <col min="4" max="4" width="19.6640625" customWidth="1"/>
+    <col min="5" max="5" width="22.33203125" customWidth="1"/>
+    <col min="6" max="6" width="14.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>4</v>
+        <v>36</v>
+      </c>
+      <c r="B1" t="s">
+        <v>37</v>
       </c>
       <c r="C1" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="D1" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>9</v>
+        <v>49</v>
+      </c>
+      <c r="B2" t="s">
+        <v>50</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2">
-        <v>2024</v>
+        <v>54</v>
+      </c>
+      <c r="D2" t="s">
+        <v>54</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>24</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17CF5816-4F4A-4429-8387-0419C6AF220D}">
+  <dimension ref="A1:K2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="22.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.44140625" customWidth="1"/>
+    <col min="3" max="3" width="15.77734375" customWidth="1"/>
+    <col min="4" max="4" width="16.77734375" customWidth="1"/>
+    <col min="5" max="5" width="18.33203125" customWidth="1"/>
+    <col min="6" max="6" width="11.5546875" customWidth="1"/>
+    <col min="7" max="7" width="18.21875" customWidth="1"/>
+    <col min="8" max="8" width="20.77734375" customWidth="1"/>
+    <col min="10" max="10" width="10" customWidth="1"/>
+    <col min="11" max="11" width="20.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{494E087B-1E74-4DBF-A126-0DCB7705C97B}">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17.6640625" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" customWidth="1"/>
+    <col min="4" max="4" width="12.88671875" customWidth="1"/>
+    <col min="5" max="5" width="19.109375" customWidth="1"/>
+    <col min="6" max="6" width="15" customWidth="1"/>
+    <col min="7" max="7" width="17.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2">
+        <v>1000</v>
+      </c>
+      <c r="G2" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/AutomationTestSuite/target/test-classes/data.xlsx
+++ b/AutomationTestSuite/target/test-classes/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\eclipse-workspace\AutomationTestSuite\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65B090FC-8976-4019-9221-B663F3A1F1BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36A3ED5C-2189-4FE3-A123-93E0EAC7B181}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="703" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="703" firstSheet="4" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
@@ -23,6 +23,7 @@
     <sheet name="purchaseReturnWithoutRef" sheetId="9" r:id="rId8"/>
     <sheet name="purchaseCashback" sheetId="10" r:id="rId9"/>
     <sheet name="VatReport" sheetId="4" r:id="rId10"/>
+    <sheet name="clients" sheetId="13" r:id="rId11"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="100">
   <si>
     <t>email</t>
   </si>
@@ -199,6 +200,141 @@
   </si>
   <si>
     <t>Jul 05 2024</t>
+  </si>
+  <si>
+    <t>shortName</t>
+  </si>
+  <si>
+    <t>accountType</t>
+  </si>
+  <si>
+    <t>relationshipType</t>
+  </si>
+  <si>
+    <t>corporateType</t>
+  </si>
+  <si>
+    <t>commercialRegistartionNo</t>
+  </si>
+  <si>
+    <t>unifiedNo</t>
+  </si>
+  <si>
+    <t>website</t>
+  </si>
+  <si>
+    <t>vatRegistrationNo</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>city</t>
+  </si>
+  <si>
+    <t>district</t>
+  </si>
+  <si>
+    <t>zip</t>
+  </si>
+  <si>
+    <t>referenceNo</t>
+  </si>
+  <si>
+    <t>ArAddress</t>
+  </si>
+  <si>
+    <t>EnAddress</t>
+  </si>
+  <si>
+    <t>phone</t>
+  </si>
+  <si>
+    <t>mail</t>
+  </si>
+  <si>
+    <t>Both</t>
+  </si>
+  <si>
+    <t>منة الله عماد</t>
+  </si>
+  <si>
+    <t>Menna Emad</t>
+  </si>
+  <si>
+    <t>حساب</t>
+  </si>
+  <si>
+    <t>كلاهما</t>
+  </si>
+  <si>
+    <t>مؤسسة</t>
+  </si>
+  <si>
+    <t>https://fai-wp.ahadtest.com</t>
+  </si>
+  <si>
+    <t>123451234512345</t>
+  </si>
+  <si>
+    <t>مصر</t>
+  </si>
+  <si>
+    <t>الإسكندرية</t>
+  </si>
+  <si>
+    <t>سموحه</t>
+  </si>
+  <si>
+    <t>smouha</t>
+  </si>
+  <si>
+    <t>0559505553</t>
+  </si>
+  <si>
+    <t>repArName</t>
+  </si>
+  <si>
+    <t>repEnName</t>
+  </si>
+  <si>
+    <t>ArTitle</t>
+  </si>
+  <si>
+    <t>EnTitle</t>
+  </si>
+  <si>
+    <t>ماريو نادى</t>
+  </si>
+  <si>
+    <t>مدير منتج</t>
+  </si>
+  <si>
+    <t>MarioNady</t>
+  </si>
+  <si>
+    <t>product manager</t>
+  </si>
+  <si>
+    <t>repEmail</t>
+  </si>
+  <si>
+    <t>mario@fai.ws</t>
+  </si>
+  <si>
+    <t>menna@fai.ws</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>مُعتَمَد</t>
+  </si>
+  <si>
+    <t>repPhone</t>
+  </si>
+  <si>
+    <t>0559505554</t>
   </si>
 </sst>
 </file>
@@ -618,6 +754,208 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60B52009-A83D-4013-B030-64DC2CD80673}">
+  <dimension ref="A1:Z2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="Z14" sqref="Z14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="12" customWidth="1"/>
+    <col min="4" max="4" width="15.109375" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" customWidth="1"/>
+    <col min="6" max="6" width="13.88671875" customWidth="1"/>
+    <col min="7" max="7" width="23.44140625" customWidth="1"/>
+    <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.88671875" customWidth="1"/>
+    <col min="10" max="10" width="17.88671875" style="2" customWidth="1"/>
+    <col min="15" max="15" width="13.33203125" customWidth="1"/>
+    <col min="16" max="16" width="10.21875" customWidth="1"/>
+    <col min="17" max="17" width="9.5546875" customWidth="1"/>
+    <col min="18" max="18" width="11.6640625" style="2" customWidth="1"/>
+    <col min="19" max="19" width="15" customWidth="1"/>
+    <col min="20" max="20" width="10.33203125" customWidth="1"/>
+    <col min="21" max="21" width="10.77734375" customWidth="1"/>
+    <col min="23" max="23" width="15.88671875" customWidth="1"/>
+    <col min="24" max="24" width="12" customWidth="1"/>
+    <col min="26" max="26" width="11.109375" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="K1" t="s">
+        <v>63</v>
+      </c>
+      <c r="L1" t="s">
+        <v>64</v>
+      </c>
+      <c r="M1" t="s">
+        <v>65</v>
+      </c>
+      <c r="N1" t="s">
+        <v>66</v>
+      </c>
+      <c r="O1" t="s">
+        <v>67</v>
+      </c>
+      <c r="P1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>69</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="S1" t="s">
+        <v>71</v>
+      </c>
+      <c r="T1" t="s">
+        <v>85</v>
+      </c>
+      <c r="U1" t="s">
+        <v>86</v>
+      </c>
+      <c r="V1" t="s">
+        <v>87</v>
+      </c>
+      <c r="W1" t="s">
+        <v>88</v>
+      </c>
+      <c r="X1" t="s">
+        <v>93</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>96</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G2">
+        <v>1111122222</v>
+      </c>
+      <c r="H2">
+        <v>5555566666</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="K2" t="s">
+        <v>80</v>
+      </c>
+      <c r="L2" t="s">
+        <v>81</v>
+      </c>
+      <c r="M2" t="s">
+        <v>82</v>
+      </c>
+      <c r="N2">
+        <v>123</v>
+      </c>
+      <c r="O2">
+        <v>12345</v>
+      </c>
+      <c r="P2" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>83</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="T2" t="s">
+        <v>89</v>
+      </c>
+      <c r="U2" t="s">
+        <v>91</v>
+      </c>
+      <c r="V2" t="s">
+        <v>90</v>
+      </c>
+      <c r="W2" t="s">
+        <v>92</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>97</v>
+      </c>
+      <c r="Z2" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="I2" r:id="rId1" xr:uid="{D1EB1092-3E62-48FC-9719-3D01E79FC5B4}"/>
+    <hyperlink ref="S2" r:id="rId2" xr:uid="{4ABDD191-21B4-44A5-BC4B-5FA647F112A8}"/>
+    <hyperlink ref="X2" r:id="rId3" xr:uid="{BB146E7C-5CE5-401F-8131-C8ED3C802883}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0978804B-D341-4909-A367-7267DE1FF7A1}">
   <dimension ref="A1:K2"/>
@@ -989,7 +1327,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44CE336D-961F-47DC-9682-35235FA451C1}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>

--- a/AutomationTestSuite/target/test-classes/data.xlsx
+++ b/AutomationTestSuite/target/test-classes/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\eclipse-workspace\AutomationTestSuite\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36A3ED5C-2189-4FE3-A123-93E0EAC7B181}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51956363-D033-44B7-804F-C0302A45B3F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="703" firstSheet="4" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="703" firstSheet="4" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
@@ -24,6 +24,7 @@
     <sheet name="purchaseCashback" sheetId="10" r:id="rId9"/>
     <sheet name="VatReport" sheetId="4" r:id="rId10"/>
     <sheet name="clients" sheetId="13" r:id="rId11"/>
+    <sheet name="company" sheetId="14" r:id="rId12"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="118">
   <si>
     <t>email</t>
   </si>
@@ -335,6 +336,60 @@
   </si>
   <si>
     <t>0559505554</t>
+  </si>
+  <si>
+    <t>companyType</t>
+  </si>
+  <si>
+    <t>Fai</t>
+  </si>
+  <si>
+    <t>منشأة</t>
+  </si>
+  <si>
+    <t>organizationType</t>
+  </si>
+  <si>
+    <t>commercialRegistrtaionNo</t>
+  </si>
+  <si>
+    <t>taxNo</t>
+  </si>
+  <si>
+    <t>1234567890</t>
+  </si>
+  <si>
+    <t>111112222233333</t>
+  </si>
+  <si>
+    <t>0987654321</t>
+  </si>
+  <si>
+    <t>1111122222</t>
+  </si>
+  <si>
+    <t>effectiveVATRegistrationDate</t>
+  </si>
+  <si>
+    <t>Jan 01 2024</t>
+  </si>
+  <si>
+    <t>reportType</t>
+  </si>
+  <si>
+    <t>شهري</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>role</t>
+  </si>
+  <si>
+    <t>Mario Nady</t>
+  </si>
+  <si>
+    <t>مالك الحساب</t>
   </si>
 </sst>
 </file>
@@ -379,10 +434,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -758,7 +814,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60B52009-A83D-4013-B030-64DC2CD80673}">
   <dimension ref="A1:Z2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+    <sheetView topLeftCell="J1" workbookViewId="0">
       <selection activeCell="Z14" sqref="Z14"/>
     </sheetView>
   </sheetViews>
@@ -951,6 +1007,114 @@
     <hyperlink ref="I2" r:id="rId1" xr:uid="{D1EB1092-3E62-48FC-9719-3D01E79FC5B4}"/>
     <hyperlink ref="S2" r:id="rId2" xr:uid="{4ABDD191-21B4-44A5-BC4B-5FA647F112A8}"/>
     <hyperlink ref="X2" r:id="rId3" xr:uid="{BB146E7C-5CE5-401F-8131-C8ED3C802883}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53839567-F6A2-4DAF-87F5-C7A64298C766}">
+  <dimension ref="A1:L2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.77734375" customWidth="1"/>
+    <col min="2" max="2" width="14" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="22.77734375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="15.44140625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="18" style="2" customWidth="1"/>
+    <col min="8" max="8" width="26.33203125" customWidth="1"/>
+    <col min="9" max="9" width="11.5546875" customWidth="1"/>
+    <col min="10" max="10" width="13" customWidth="1"/>
+    <col min="11" max="11" width="14.109375" customWidth="1"/>
+    <col min="12" max="12" width="12.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="J2" r:id="rId1" xr:uid="{41B70C04-43BE-4D1F-97EB-A7779E9B787C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1487,8 +1651,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{494E087B-1E74-4DBF-A126-0DCB7705C97B}">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/AutomationTestSuite/target/test-classes/data.xlsx
+++ b/AutomationTestSuite/target/test-classes/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\eclipse-workspace\AutomationTestSuite\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51956363-D033-44B7-804F-C0302A45B3F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70A74B39-E073-4496-BA05-DAC58A61A144}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="703" firstSheet="4" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="703" firstSheet="4" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
@@ -25,6 +25,7 @@
     <sheet name="VatReport" sheetId="4" r:id="rId10"/>
     <sheet name="clients" sheetId="13" r:id="rId11"/>
     <sheet name="company" sheetId="14" r:id="rId12"/>
+    <sheet name="products" sheetId="15" r:id="rId13"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="126">
   <si>
     <t>email</t>
   </si>
@@ -320,12 +321,6 @@
     <t>repEmail</t>
   </si>
   <si>
-    <t>mario@fai.ws</t>
-  </si>
-  <si>
-    <t>menna@fai.ws</t>
-  </si>
-  <si>
     <t>status</t>
   </si>
   <si>
@@ -390,6 +385,36 @@
   </si>
   <si>
     <t>مالك الحساب</t>
+  </si>
+  <si>
+    <t>mario@fai.sa</t>
+  </si>
+  <si>
+    <t>menna@fai.sa</t>
+  </si>
+  <si>
+    <t>منتج</t>
+  </si>
+  <si>
+    <t>ArDescription</t>
+  </si>
+  <si>
+    <t>وصف المنتج</t>
+  </si>
+  <si>
+    <t>EnDescription</t>
+  </si>
+  <si>
+    <t>product description</t>
+  </si>
+  <si>
+    <t>productType</t>
+  </si>
+  <si>
+    <t>productCode</t>
+  </si>
+  <si>
+    <t>Auto</t>
   </si>
 </sst>
 </file>
@@ -815,7 +840,7 @@
   <dimension ref="A1:Z2"/>
   <sheetViews>
     <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="Z14" sqref="Z14"/>
+      <selection activeCell="X2" sqref="X2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -838,7 +863,7 @@
     <col min="20" max="20" width="10.33203125" customWidth="1"/>
     <col min="21" max="21" width="10.77734375" customWidth="1"/>
     <col min="23" max="23" width="15.88671875" customWidth="1"/>
-    <col min="24" max="24" width="12" customWidth="1"/>
+    <col min="24" max="24" width="18.21875" customWidth="1"/>
     <col min="26" max="26" width="11.109375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
@@ -916,10 +941,10 @@
         <v>93</v>
       </c>
       <c r="Y1" t="s">
+        <v>94</v>
+      </c>
+      <c r="Z1" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="Z1" s="2" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.3">
@@ -978,7 +1003,7 @@
         <v>84</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>95</v>
+        <v>117</v>
       </c>
       <c r="T2" t="s">
         <v>89</v>
@@ -993,13 +1018,13 @@
         <v>92</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>94</v>
+        <v>116</v>
       </c>
       <c r="Y2" t="s">
+        <v>95</v>
+      </c>
+      <c r="Z2" s="2" t="s">
         <v>97</v>
-      </c>
-      <c r="Z2" s="2" t="s">
-        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -1017,7 +1042,7 @@
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1041,81 +1066,151 @@
         <v>55</v>
       </c>
       <c r="B1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>60</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>62</v>
       </c>
       <c r="H1" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>110</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>112</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C2" t="s">
         <v>77</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="G2" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="I2" s="2" t="s">
-        <v>113</v>
-      </c>
       <c r="J2" s="3" t="s">
-        <v>94</v>
+        <v>116</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="J2" r:id="rId1" xr:uid="{41B70C04-43BE-4D1F-97EB-A7779E9B787C}"/>
   </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7AFABAF-F97A-47E7-8DD6-3FE651B79F04}">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.33203125" customWidth="1"/>
+    <col min="2" max="2" width="11.5546875" customWidth="1"/>
+    <col min="3" max="3" width="17" customWidth="1"/>
+    <col min="4" max="4" width="19" customWidth="1"/>
+    <col min="5" max="5" width="13.109375" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" customWidth="1"/>
+    <col min="7" max="7" width="11.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F2">
+        <v>1000</v>
+      </c>
+      <c r="G2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1651,8 +1746,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{494E087B-1E74-4DBF-A126-0DCB7705C97B}">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/AutomationTestSuite/target/test-classes/data.xlsx
+++ b/AutomationTestSuite/target/test-classes/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\eclipse-workspace\AutomationTestSuite\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70A74B39-E073-4496-BA05-DAC58A61A144}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA6B6FCF-8C03-437C-9CD7-47E516410F1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="703" firstSheet="4" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="703" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
@@ -27,17 +27,28 @@
     <sheet name="company" sheetId="14" r:id="rId12"/>
     <sheet name="products" sheetId="15" r:id="rId13"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="127">
   <si>
     <t>email</t>
   </si>
@@ -165,9 +176,6 @@
     <t>return001</t>
   </si>
   <si>
-    <t>Nov 05 2023</t>
-  </si>
-  <si>
     <t xml:space="preserve">invoiceDate </t>
   </si>
   <si>
@@ -276,9 +284,6 @@
     <t>https://fai-wp.ahadtest.com</t>
   </si>
   <si>
-    <t>123451234512345</t>
-  </si>
-  <si>
     <t>مصر</t>
   </si>
   <si>
@@ -354,9 +359,6 @@
     <t>1234567890</t>
   </si>
   <si>
-    <t>111112222233333</t>
-  </si>
-  <si>
     <t>0987654321</t>
   </si>
   <si>
@@ -415,6 +417,18 @@
   </si>
   <si>
     <t>Auto</t>
+  </si>
+  <si>
+    <t>311111111111113</t>
+  </si>
+  <si>
+    <t>Cashback001</t>
+  </si>
+  <si>
+    <t>Aug 12 2024</t>
+  </si>
+  <si>
+    <t>331111111111113</t>
   </si>
 </sst>
 </file>
@@ -839,8 +853,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60B52009-A83D-4013-B030-64DC2CD80673}">
   <dimension ref="A1:Z2"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="X2" sqref="X2"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -869,7 +883,7 @@
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
@@ -878,93 +892,93 @@
         <v>4</v>
       </c>
       <c r="D1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1" t="s">
         <v>56</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>57</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>58</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>59</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>60</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" t="s">
         <v>62</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>63</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>64</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>65</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>66</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>67</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>68</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" t="s">
         <v>70</v>
       </c>
-      <c r="S1" t="s">
-        <v>71</v>
-      </c>
       <c r="T1" t="s">
+        <v>83</v>
+      </c>
+      <c r="U1" t="s">
+        <v>84</v>
+      </c>
+      <c r="V1" t="s">
         <v>85</v>
       </c>
-      <c r="U1" t="s">
+      <c r="W1" t="s">
         <v>86</v>
       </c>
-      <c r="V1" t="s">
-        <v>87</v>
-      </c>
-      <c r="W1" t="s">
-        <v>88</v>
-      </c>
       <c r="X1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="Y1" t="s">
+        <v>92</v>
+      </c>
+      <c r="Z1" s="2" t="s">
         <v>94</v>
-      </c>
-      <c r="Z1" s="2" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B2" t="s">
         <v>72</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>73</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>74</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>75</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>76</v>
-      </c>
-      <c r="F2" t="s">
-        <v>77</v>
       </c>
       <c r="G2">
         <v>1111122222</v>
@@ -973,19 +987,19 @@
         <v>5555566666</v>
       </c>
       <c r="I2" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="K2" t="s">
         <v>78</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="L2" t="s">
         <v>79</v>
       </c>
-      <c r="K2" t="s">
+      <c r="M2" t="s">
         <v>80</v>
-      </c>
-      <c r="L2" t="s">
-        <v>81</v>
-      </c>
-      <c r="M2" t="s">
-        <v>82</v>
       </c>
       <c r="N2">
         <v>123</v>
@@ -994,37 +1008,37 @@
         <v>12345</v>
       </c>
       <c r="P2" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>81</v>
+      </c>
+      <c r="R2" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="Q2" t="s">
-        <v>83</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>84</v>
-      </c>
       <c r="S2" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="T2" t="s">
+        <v>87</v>
+      </c>
+      <c r="U2" t="s">
         <v>89</v>
       </c>
-      <c r="U2" t="s">
-        <v>91</v>
-      </c>
       <c r="V2" t="s">
+        <v>88</v>
+      </c>
+      <c r="W2" t="s">
         <v>90</v>
       </c>
-      <c r="W2" t="s">
-        <v>92</v>
-      </c>
       <c r="X2" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="Y2" t="s">
+        <v>93</v>
+      </c>
+      <c r="Z2" s="2" t="s">
         <v>95</v>
-      </c>
-      <c r="Z2" s="2" t="s">
-        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -1042,7 +1056,7 @@
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1063,78 +1077,78 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>103</v>
-      </c>
       <c r="G1" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>107</v>
-      </c>
       <c r="F2" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>109</v>
-      </c>
       <c r="I2" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="J2" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>114</v>
-      </c>
       <c r="L2" s="2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -1149,8 +1163,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7AFABAF-F97A-47E7-8DD6-3FE651B79F04}">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1172,42 +1186,42 @@
         <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1" t="s">
         <v>121</v>
-      </c>
-      <c r="E1" t="s">
-        <v>123</v>
-      </c>
-      <c r="F1" t="s">
-        <v>48</v>
-      </c>
-      <c r="G1" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B2" t="s">
         <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F2">
         <v>1000</v>
       </c>
       <c r="G2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -1220,7 +1234,7 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" activeCellId="4" sqref="A1:A1048576 B1:B1048576 C1:C1048576 D1:D1048576 E1:E1048576"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1269,7 +1283,7 @@
         <v>29</v>
       </c>
       <c r="K1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
@@ -1316,8 +1330,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E10BFDF2-3C8C-49D7-9B6A-12B0125A3F86}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:F1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1358,10 +1372,10 @@
         <v>39</v>
       </c>
       <c r="C2" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="D2" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="E2" t="s">
         <v>24</v>
@@ -1380,7 +1394,7 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:K1048576"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1405,7 +1419,7 @@
         <v>13</v>
       </c>
       <c r="C1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D1" t="s">
         <v>17</v>
@@ -1429,7 +1443,7 @@
         <v>29</v>
       </c>
       <c r="K1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
@@ -1440,10 +1454,10 @@
         <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E2" t="s">
         <v>24</v>
@@ -1455,7 +1469,7 @@
         <v>26</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -1464,7 +1478,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -1474,14 +1488,69 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E07147E-3949-44F0-87EA-41D72D3FF263}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:G1048576"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="17.6640625" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" customWidth="1"/>
+    <col min="3" max="3" width="16.5546875" customWidth="1"/>
+    <col min="4" max="4" width="17.33203125" customWidth="1"/>
+    <col min="5" max="6" width="17.77734375" customWidth="1"/>
+    <col min="7" max="7" width="16.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2">
+        <v>500</v>
+      </c>
+      <c r="G2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1587,7 +1656,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1622,16 +1691,16 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" t="s">
         <v>49</v>
       </c>
-      <c r="B2" t="s">
-        <v>50</v>
-      </c>
       <c r="C2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E2" t="s">
         <v>24</v>
@@ -1675,7 +1744,7 @@
         <v>13</v>
       </c>
       <c r="C1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D1" t="s">
         <v>17</v>
@@ -1699,21 +1768,21 @@
         <v>29</v>
       </c>
       <c r="K1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B2" t="s">
         <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E2" t="s">
         <v>24</v>
@@ -1725,7 +1794,7 @@
         <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -1734,7 +1803,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -1747,7 +1816,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1778,15 +1847,15 @@
         <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B2" t="s">
         <v>15</v>
@@ -1804,7 +1873,7 @@
         <v>1000</v>
       </c>
       <c r="G2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/AutomationTestSuite/target/test-classes/data.xlsx
+++ b/AutomationTestSuite/target/test-classes/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\eclipse-workspace\AutomationTestSuite\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA6B6FCF-8C03-437C-9CD7-47E516410F1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73637BCD-0BB1-41CD-9A96-DC98032567E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="703" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="703" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="130">
   <si>
     <t>email</t>
   </si>
@@ -74,27 +74,12 @@
     <t>year</t>
   </si>
   <si>
-    <t>يوليو</t>
-  </si>
-  <si>
-    <t>july 2024</t>
-  </si>
-  <si>
-    <t>يوليو 2024</t>
-  </si>
-  <si>
-    <t>تقرير شهر يوليو سنه 2024</t>
-  </si>
-  <si>
     <t>invoiceNumber</t>
   </si>
   <si>
     <t>clientName</t>
   </si>
   <si>
-    <t>Aug001</t>
-  </si>
-  <si>
     <t>Nahla</t>
   </si>
   <si>
@@ -429,6 +414,30 @@
   </si>
   <si>
     <t>331111111111113</t>
+  </si>
+  <si>
+    <t>يناير 2025</t>
+  </si>
+  <si>
+    <t>Jan 2025</t>
+  </si>
+  <si>
+    <t>يناير</t>
+  </si>
+  <si>
+    <t>تقرير شهر يناير سنه 2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Jan001</t>
+  </si>
+  <si>
+    <t>Jan 01 2025</t>
+  </si>
+  <si>
+    <t>Jan 02 2025</t>
   </si>
 </sst>
 </file>
@@ -829,19 +838,19 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>122</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>9</v>
+        <v>123</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>124</v>
       </c>
       <c r="D2">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -883,7 +892,7 @@
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
@@ -892,93 +901,93 @@
         <v>4</v>
       </c>
       <c r="D1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I1" t="s">
         <v>55</v>
       </c>
-      <c r="E1" t="s">
+      <c r="J1" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="F1" t="s">
+      <c r="K1" t="s">
         <v>57</v>
       </c>
-      <c r="G1" t="s">
+      <c r="L1" t="s">
         <v>58</v>
       </c>
-      <c r="H1" t="s">
+      <c r="M1" t="s">
         <v>59</v>
       </c>
-      <c r="I1" t="s">
+      <c r="N1" t="s">
         <v>60</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="O1" t="s">
         <v>61</v>
       </c>
-      <c r="K1" t="s">
+      <c r="P1" t="s">
         <v>62</v>
       </c>
-      <c r="L1" t="s">
+      <c r="Q1" t="s">
         <v>63</v>
       </c>
-      <c r="M1" t="s">
+      <c r="R1" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="N1" t="s">
+      <c r="S1" t="s">
         <v>65</v>
       </c>
-      <c r="O1" t="s">
-        <v>66</v>
-      </c>
-      <c r="P1" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>68</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="S1" t="s">
-        <v>70</v>
-      </c>
       <c r="T1" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="U1" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="V1" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="W1" t="s">
+        <v>81</v>
+      </c>
+      <c r="X1" t="s">
         <v>86</v>
       </c>
-      <c r="X1" t="s">
-        <v>91</v>
-      </c>
       <c r="Y1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="Z1" s="2" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F2" t="s">
         <v>71</v>
-      </c>
-      <c r="B2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D2" t="s">
-        <v>74</v>
-      </c>
-      <c r="E2" t="s">
-        <v>75</v>
-      </c>
-      <c r="F2" t="s">
-        <v>76</v>
       </c>
       <c r="G2">
         <v>1111122222</v>
@@ -987,19 +996,19 @@
         <v>5555566666</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="K2" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="L2" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="M2" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="N2">
         <v>123</v>
@@ -1008,37 +1017,37 @@
         <v>12345</v>
       </c>
       <c r="P2" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="Q2" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="R2" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="T2" t="s">
         <v>82</v>
       </c>
-      <c r="S2" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="T2" t="s">
-        <v>87</v>
-      </c>
       <c r="U2" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="V2" t="s">
+        <v>83</v>
+      </c>
+      <c r="W2" t="s">
+        <v>85</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y2" t="s">
         <v>88</v>
       </c>
-      <c r="W2" t="s">
+      <c r="Z2" s="2" t="s">
         <v>90</v>
-      </c>
-      <c r="X2" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>93</v>
-      </c>
-      <c r="Z2" s="2" t="s">
-        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -1077,78 +1086,78 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E1" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>105</v>
-      </c>
       <c r="I1" s="2" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B2" t="s">
+      <c r="E2" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="C2" t="s">
-        <v>76</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="H2" s="2" t="s">
+      <c r="J2" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="I2" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>111</v>
-      </c>
       <c r="L2" s="2" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -1186,42 +1195,42 @@
         <v>4</v>
       </c>
       <c r="C1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E1" t="s">
+        <v>115</v>
+      </c>
+      <c r="F1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G1" t="s">
         <v>116</v>
-      </c>
-      <c r="D1" t="s">
-        <v>118</v>
-      </c>
-      <c r="E1" t="s">
-        <v>120</v>
-      </c>
-      <c r="F1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G1" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="D2" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="E2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="F2">
         <v>1000</v>
       </c>
       <c r="G2" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -1233,8 +1242,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0978804B-D341-4909-A367-7267DE1FF7A1}">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1253,63 +1262,63 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
         <v>12</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" t="s">
         <v>13</v>
       </c>
-      <c r="C1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" t="s">
         <v>23</v>
       </c>
-      <c r="F1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I1" t="s">
-        <v>28</v>
-      </c>
       <c r="J1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="K1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>127</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" t="s">
         <v>21</v>
       </c>
-      <c r="D2" t="s">
+      <c r="H2" t="s">
         <v>22</v>
-      </c>
-      <c r="E2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H2" t="s">
-        <v>27</v>
       </c>
       <c r="I2">
         <v>5</v>
@@ -1318,7 +1327,7 @@
         <v>10</v>
       </c>
       <c r="K2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -1330,7 +1339,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E10BFDF2-3C8C-49D7-9B6A-12B0125A3F86}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -1346,39 +1355,39 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="F1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B2" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -1413,63 +1422,63 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" t="s">
         <v>12</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" t="s">
         <v>13</v>
       </c>
-      <c r="C1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" t="s">
         <v>23</v>
       </c>
-      <c r="F1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I1" t="s">
-        <v>28</v>
-      </c>
       <c r="J1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="K1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" t="s">
         <v>41</v>
-      </c>
-      <c r="B2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H2" t="s">
-        <v>46</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -1478,7 +1487,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1506,48 +1515,48 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
         <v>12</v>
       </c>
-      <c r="B1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" t="s">
-        <v>17</v>
-      </c>
       <c r="E1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="F1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="G1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="D2" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F2">
         <v>500</v>
       </c>
       <c r="G2" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1557,10 +1566,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1AAE4FD-2C05-46F3-9B37-96DC9848AF1B}">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1573,68 +1582,68 @@
     <col min="6" max="6" width="10.88671875" customWidth="1"/>
     <col min="7" max="7" width="14.88671875" customWidth="1"/>
     <col min="8" max="8" width="20.77734375" customWidth="1"/>
-    <col min="11" max="11" width="12.5546875" customWidth="1"/>
+    <col min="11" max="11" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
         <v>12</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" t="s">
         <v>13</v>
       </c>
-      <c r="C1" t="s">
+      <c r="G1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
         <v>16</v>
       </c>
-      <c r="D1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="D2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" t="s">
         <v>19</v>
       </c>
-      <c r="H1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="F2" t="s">
         <v>28</v>
       </c>
-      <c r="J1" t="s">
+      <c r="G2" t="s">
         <v>29</v>
       </c>
-      <c r="K1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G2" t="s">
-        <v>34</v>
-      </c>
       <c r="H2" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -1643,7 +1652,12 @@
         <v>0</v>
       </c>
       <c r="K2" t="s">
-        <v>35</v>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M3" t="s">
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -1671,39 +1685,39 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="F1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" t="s">
         <v>48</v>
       </c>
-      <c r="B2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C2" t="s">
-        <v>53</v>
-      </c>
       <c r="D2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -1738,63 +1752,63 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" t="s">
         <v>12</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" t="s">
         <v>13</v>
       </c>
-      <c r="C1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" t="s">
         <v>23</v>
       </c>
-      <c r="F1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I1" t="s">
-        <v>28</v>
-      </c>
       <c r="J1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="K1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F2" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="G2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -1803,7 +1817,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -1832,48 +1846,48 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
         <v>12</v>
       </c>
-      <c r="B1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" t="s">
-        <v>17</v>
-      </c>
       <c r="E1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="F1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="G1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F2">
         <v>1000</v>
       </c>
       <c r="G2" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/AutomationTestSuite/target/test-classes/data.xlsx
+++ b/AutomationTestSuite/target/test-classes/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\eclipse-workspace\AutomationTestSuite\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73637BCD-0BB1-41CD-9A96-DC98032567E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{990E9324-6B13-49EC-895E-B28F077AD314}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="703" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="703" firstSheet="4" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="127">
   <si>
     <t>email</t>
   </si>
@@ -98,12 +98,6 @@
     <t>productDescription</t>
   </si>
   <si>
-    <t>Aug 01 2024</t>
-  </si>
-  <si>
-    <t>Aug 02 2024</t>
-  </si>
-  <si>
     <t>invoiceNotes</t>
   </si>
   <si>
@@ -164,9 +158,6 @@
     <t xml:space="preserve">invoiceDate </t>
   </si>
   <si>
-    <t>Aug 05 2024</t>
-  </si>
-  <si>
     <t>SA_SA_S050-مرتجع</t>
   </si>
   <si>
@@ -194,9 +185,6 @@
     <t>p_Cashback001</t>
   </si>
   <si>
-    <t>Jul 05 2024</t>
-  </si>
-  <si>
     <t>shortName</t>
   </si>
   <si>
@@ -410,9 +398,6 @@
     <t>Cashback001</t>
   </si>
   <si>
-    <t>Aug 12 2024</t>
-  </si>
-  <si>
     <t>331111111111113</t>
   </si>
   <si>
@@ -438,6 +423,12 @@
   </si>
   <si>
     <t>Jan 02 2025</t>
+  </si>
+  <si>
+    <t>Jan 05 2025</t>
+  </si>
+  <si>
+    <t>Jan 12 2025</t>
   </si>
 </sst>
 </file>
@@ -838,19 +829,19 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C2" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="D2">
         <v>2025</v>
       </c>
       <c r="E2" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -892,7 +883,7 @@
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
@@ -901,93 +892,93 @@
         <v>4</v>
       </c>
       <c r="D1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H1" t="s">
         <v>50</v>
       </c>
-      <c r="E1" t="s">
+      <c r="I1" t="s">
         <v>51</v>
       </c>
-      <c r="F1" t="s">
+      <c r="J1" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="G1" t="s">
+      <c r="K1" t="s">
         <v>53</v>
       </c>
-      <c r="H1" t="s">
+      <c r="L1" t="s">
         <v>54</v>
       </c>
-      <c r="I1" t="s">
+      <c r="M1" t="s">
         <v>55</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="N1" t="s">
         <v>56</v>
       </c>
-      <c r="K1" t="s">
+      <c r="O1" t="s">
         <v>57</v>
       </c>
-      <c r="L1" t="s">
+      <c r="P1" t="s">
         <v>58</v>
       </c>
-      <c r="M1" t="s">
+      <c r="Q1" t="s">
         <v>59</v>
       </c>
-      <c r="N1" t="s">
+      <c r="R1" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="O1" t="s">
+      <c r="S1" t="s">
         <v>61</v>
       </c>
-      <c r="P1" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>63</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="S1" t="s">
-        <v>65</v>
-      </c>
       <c r="T1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="U1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="V1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="W1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="X1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="Y1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="Z1" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E2" t="s">
         <v>66</v>
       </c>
-      <c r="B2" t="s">
+      <c r="F2" t="s">
         <v>67</v>
-      </c>
-      <c r="C2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D2" t="s">
-        <v>69</v>
-      </c>
-      <c r="E2" t="s">
-        <v>70</v>
-      </c>
-      <c r="F2" t="s">
-        <v>71</v>
       </c>
       <c r="G2">
         <v>1111122222</v>
@@ -996,19 +987,19 @@
         <v>5555566666</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="K2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="L2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="M2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="N2">
         <v>123</v>
@@ -1017,37 +1008,37 @@
         <v>12345</v>
       </c>
       <c r="P2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="Q2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="T2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="U2" t="s">
+        <v>80</v>
+      </c>
+      <c r="V2" t="s">
+        <v>79</v>
+      </c>
+      <c r="W2" t="s">
+        <v>81</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="Y2" t="s">
         <v>84</v>
       </c>
-      <c r="V2" t="s">
-        <v>83</v>
-      </c>
-      <c r="W2" t="s">
-        <v>85</v>
-      </c>
-      <c r="X2" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>88</v>
-      </c>
       <c r="Z2" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -1086,78 +1077,78 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>95</v>
-      </c>
       <c r="F1" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>100</v>
-      </c>
       <c r="I1" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="C2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="L2" s="2" t="s">
         <v>103</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -1172,7 +1163,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7AFABAF-F97A-47E7-8DD6-3FE651B79F04}">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="B3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
@@ -1195,42 +1186,42 @@
         <v>4</v>
       </c>
       <c r="C1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E1" t="s">
         <v>111</v>
       </c>
-      <c r="D1" t="s">
-        <v>113</v>
-      </c>
-      <c r="E1" t="s">
-        <v>115</v>
-      </c>
       <c r="F1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G1" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B2" t="s">
         <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="E2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F2">
         <v>1000</v>
       </c>
       <c r="G2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -1242,7 +1233,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0978804B-D341-4909-A367-7267DE1FF7A1}">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -1274,7 +1265,7 @@
         <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F1" t="s">
         <v>13</v>
@@ -1286,39 +1277,39 @@
         <v>15</v>
       </c>
       <c r="I1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="K1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="B2" t="s">
         <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="D2" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="E2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" t="s">
         <v>19</v>
       </c>
-      <c r="F2" t="s">
+      <c r="H2" t="s">
         <v>20</v>
-      </c>
-      <c r="G2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H2" t="s">
-        <v>22</v>
       </c>
       <c r="I2">
         <v>5</v>
@@ -1327,7 +1318,7 @@
         <v>10</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -1355,10 +1346,10 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C1" t="s">
         <v>11</v>
@@ -1367,27 +1358,27 @@
         <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C2" t="s">
-        <v>48</v>
+        <v>125</v>
       </c>
       <c r="D2" t="s">
-        <v>48</v>
+        <v>125</v>
       </c>
       <c r="E2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -1403,7 +1394,7 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1428,13 +1419,13 @@
         <v>9</v>
       </c>
       <c r="C1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D1" t="s">
         <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F1" t="s">
         <v>13</v>
@@ -1446,39 +1437,39 @@
         <v>15</v>
       </c>
       <c r="I1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="K1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B2" t="s">
         <v>10</v>
       </c>
       <c r="C2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" t="s">
         <v>38</v>
-      </c>
-      <c r="D2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H2" t="s">
-        <v>41</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -1487,7 +1478,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1500,7 +1491,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1527,36 +1518,36 @@
         <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B2" t="s">
         <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="D2" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="E2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F2">
         <v>500</v>
       </c>
       <c r="G2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1569,7 +1560,7 @@
   <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1599,7 +1590,7 @@
         <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F1" t="s">
         <v>13</v>
@@ -1611,39 +1602,39 @@
         <v>15</v>
       </c>
       <c r="I1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1" t="s">
         <v>23</v>
-      </c>
-      <c r="J1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B2" t="s">
         <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>123</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>123</v>
       </c>
       <c r="E2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -1652,12 +1643,12 @@
         <v>0</v>
       </c>
       <c r="K2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="M3" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -1670,7 +1661,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1685,10 +1676,10 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C1" t="s">
         <v>11</v>
@@ -1697,27 +1688,27 @@
         <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C2" t="s">
-        <v>48</v>
+        <v>125</v>
       </c>
       <c r="D2" t="s">
-        <v>48</v>
+        <v>125</v>
       </c>
       <c r="E2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -1733,7 +1724,7 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1758,13 +1749,13 @@
         <v>9</v>
       </c>
       <c r="C1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D1" t="s">
         <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F1" t="s">
         <v>13</v>
@@ -1776,39 +1767,39 @@
         <v>15</v>
       </c>
       <c r="I1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="K1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B2" t="s">
         <v>10</v>
       </c>
       <c r="C2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" t="s">
         <v>38</v>
-      </c>
-      <c r="D2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H2" t="s">
-        <v>41</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -1817,7 +1808,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -1830,7 +1821,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1858,36 +1849,36 @@
         <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B2" t="s">
         <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>123</v>
       </c>
       <c r="D2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E2" t="s">
         <v>17</v>
-      </c>
-      <c r="E2" t="s">
-        <v>19</v>
       </c>
       <c r="F2">
         <v>1000</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
